--- a/Centros_Geometricos.xlsx
+++ b/Centros_Geometricos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Origem</t>
   </si>
@@ -87,6 +87,27 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Main Wing</t>
+  </si>
+  <si>
+    <t>Json Name</t>
+  </si>
+  <si>
+    <t>Rotor</t>
+  </si>
+  <si>
+    <t>Electric Motor</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Fuel Tank</t>
   </si>
 </sst>
 </file>
@@ -132,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -186,11 +207,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -201,9 +235,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -212,6 +243,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -233,23 +270,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>141118</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>52186</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0437E8A4-EC7B-4CA9-995F-68716B93FCC1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0437E8A4-EC7B-4CA9-995F-68716B93FCC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -265,8 +302,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5000624" y="0"/>
-          <a:ext cx="11506201" cy="6046618"/>
+          <a:off x="6877050" y="0"/>
+          <a:ext cx="9886950" cy="5195686"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -544,7 +581,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,9 +590,10 @@
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -568,219 +606,266 @@
       <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>1009.68</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>6321.55</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>7372.82</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>1844.66</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>6366.01</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>9529.07</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>1844.83</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>6365.9</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>5213.58</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>5785.74</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>6031.06</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>6626.04</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>5786.01</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>6031.06</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>8119.58</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="11"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>1710.99</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>6485.84</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>13572.82</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>1710.99</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>6485.84</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>1172.82</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>5974.32</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>6553.33</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>9264.3799999999992</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>5974.32</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>6553.33</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>5481.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>1710.99</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>6894.12</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>13572.82</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>1710.99</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>6894.12</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>1172.82</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>5974.32</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>6961.61</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>9264.3799999999992</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>5974.32</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>6961.61</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>5481.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>-2512.11</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>4891.13</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>7372.82</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -789,18 +874,22 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
+      <c r="E18" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F19" s="3"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E21" s="3"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M27" s="10"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D30" s="9"/>
+      <c r="D30" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Centros_Geometricos.xlsx
+++ b/Centros_Geometricos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projeto_Integrador_G6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alves\Desktop\Projeto_Integrador_G6\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13942975-B632-4F7A-8F87-38CD666489A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Origem</t>
   </si>
@@ -108,12 +109,18 @@
   </si>
   <si>
     <t>Fuel Tank</t>
+  </si>
+  <si>
+    <t>Fuselagem</t>
+  </si>
+  <si>
+    <t>Fuselage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -248,6 +255,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -286,7 +299,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0437E8A4-EC7B-4CA9-995F-68716B93FCC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0437E8A4-EC7B-4CA9-995F-68716B93FCC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -577,23 +590,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -610,7 +623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -644,7 +657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -661,7 +674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -676,7 +689,7 @@
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -692,7 +705,7 @@
       <c r="E6" s="11"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -709,7 +722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -726,7 +739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -743,7 +756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -760,7 +773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -777,7 +790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -794,7 +807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -811,7 +824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -828,7 +841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -845,7 +858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -856,7 +869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -867,28 +880,43 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="12">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="C19" s="12">
+        <v>4919.6499999999996</v>
+      </c>
+      <c r="D19" s="13">
+        <v>7374.32</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E21" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M27" s="9"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D30" s="8"/>
     </row>
   </sheetData>
